--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F598D-06FF-4E72-8C74-51FD57C70767}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169CBF0-E3A6-4AC9-875A-5F7E1A19B9E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2241,148 +2241,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2394,6 +2252,148 @@
     <xf numFmtId="14" fontId="31" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -3686,48 +3686,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="142"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -3737,10 +3737,10 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="133"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="12" t="s">
         <v>275</v>
       </c>
@@ -3777,55 +3777,55 @@
       <c r="D15" s="99"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="135" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="133"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="133"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="133"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="133"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
@@ -3842,37 +3842,37 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="133"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="157" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="141"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
@@ -3889,37 +3889,37 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="C32" s="133"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="133"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="139"/>
+      <c r="C35" s="156"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
@@ -3929,95 +3929,97 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="129"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="131"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="128"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="56"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="152"/>
       <c r="D40" s="56"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="128"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="128"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="57"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="128"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="129"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="131"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="128"/>
+      <c r="C46" s="152"/>
       <c r="D46" s="56"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="128"/>
+      <c r="C47" s="152"/>
       <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="128"/>
+      <c r="C48" s="152"/>
       <c r="D48" s="57"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="128"/>
+      <c r="C49" s="152"/>
       <c r="D49" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B38:D38"/>
@@ -4032,16 +4034,14 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4088,11 +4088,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4107,16 +4107,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="V6" s="170" t="s">
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="V6" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="W6" s="171"/>
-      <c r="X6" s="172"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="161"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4131,18 +4131,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="158">
+      <c r="G8" s="162">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
-      <c r="V8" s="158" t="e">
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="V8" s="162" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="159"/>
-      <c r="X8" s="160"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="164"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4150,12 +4150,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="163"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="167"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4163,12 +4163,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="163"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="167"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4176,19 +4176,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="166"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="170"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4212,11 +4212,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4269,18 +4269,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="154" t="s">
+      <c r="D41" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="154" t="s">
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="156"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="174"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4590,15 +4590,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4657,15 +4657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -6624,15 +6624,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -7618,7 +7618,7 @@
       <c r="F53" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="175" t="str">
+      <c r="G53" s="127" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
@@ -7714,7 +7714,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="176" t="str">
+      <c r="G58" s="128" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
@@ -8578,7 +8578,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8589,10 +8589,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="174"/>
+      <c r="B1" s="180"/>
       <c r="C1" s="107"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -8846,19 +8846,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="177" t="s">
+      <c r="A18" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="179">
+      <c r="D18" s="131">
         <v>43478</v>
       </c>
-      <c r="E18" s="180" t="s">
+      <c r="E18" s="132" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8872,7 +8872,9 @@
       <c r="C19" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="117"/>
+      <c r="D19" s="117">
+        <v>43641</v>
+      </c>
       <c r="E19" s="112" t="s">
         <v>277</v>
       </c>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169CBF0-E3A6-4AC9-875A-5F7E1A19B9E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74493EE2-2D51-4B2D-B5CC-821C11AA5C5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -24,10 +24,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exigences de Sécurité - Android'!$B$3:$H$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Exigences de Sécurité - IOS'!$B$3:$H$72</definedName>
-    <definedName name="BASE_URL">'Tableau de Bord'!$D$12</definedName>
+    <definedName name="BASE_URL">'Tableau de Bord'!$D$14</definedName>
     <definedName name="VERSION_MASVS">'Tableau de Bord'!$D$11</definedName>
+    <definedName name="VERSION_MSTG">'Tableau de Bord'!$D$13</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -983,7 +984,27 @@
     <t>1.1.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise à jour des liens à la base des restructurations du OSS19 </t>
+    <t>Version du MSTG</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Version en ligne du MASVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour des liens à la base des restructurations du OSS19:
+android 
+3.2|3.4|4.9|4.10|5.2|5.4|7.7
+IOS
+3.2|4.5|4.10|4.11|5.1|5.3|6.4|7.8 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction du lien vers le répertoire du MSTG et ajout d'un lien vers le répertoire du MASVS </t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1854,6 +1875,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1919,7 +1982,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2253,6 +2316,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2301,6 +2382,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,6 +2421,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2338,55 +2477,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3671,10 +3761,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:D49"/>
+  <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3686,362 +3776,383 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="157"/>
+      <c r="D11" s="136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="157"/>
+      <c r="D12" s="137" t="str">
+        <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
+        <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="156"/>
+      <c r="D13" s="99" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="78" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="98" t="str">
-        <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-mstg/blob/",VERSION_MASVS,"/Document/"))</f>
+      <c r="C14" s="79"/>
+      <c r="D14" s="98" t="str">
+        <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-mstg/blob/",VERSION_MSTG,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="100" t="s">
+    <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="100" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="101"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="78" t="s">
+      <c r="C16" s="97"/>
+      <c r="D16" s="101"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="99"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="135" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="99"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="133" t="s">
+      <c r="C18" s="142"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="133" t="s">
+      <c r="C19" s="140"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="133" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="133" t="s">
+      <c r="C21" s="140"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="12" t="s">
+      <c r="C22" s="140"/>
+      <c r="D22" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133" t="s">
+    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="12" t="s">
+      <c r="C23" s="140"/>
+      <c r="D23" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="77" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="133" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="133" t="s">
+      <c r="C27" s="140"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="133" t="s">
+      <c r="C28" s="140"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="157" t="s">
+      <c r="C29" s="140"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="158"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="154"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="167"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="77" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="133" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="133" t="s">
+      <c r="C34" s="140"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="133" t="s">
+      <c r="C35" s="140"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="155" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="165"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="154"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="151"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="135" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="158"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="160"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="135" t="s">
+      <c r="C41" s="161"/>
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="56"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="135" t="s">
+      <c r="C42" s="161"/>
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="56"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="135" t="s">
+      <c r="C43" s="161"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="152"/>
-      <c r="D42" s="57"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="135" t="s">
+      <c r="C44" s="161"/>
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="56"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="149"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="151"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="135" t="s">
+      <c r="C45" s="161"/>
+      <c r="D45" s="56"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="158"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="160"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="152"/>
-      <c r="D45" s="56"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="135" t="s">
+      <c r="C47" s="161"/>
+      <c r="D47" s="56"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="152"/>
-      <c r="D46" s="56"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="135" t="s">
+      <c r="C48" s="161"/>
+      <c r="D48" s="56"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="152"/>
-      <c r="D47" s="56"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="135" t="s">
+      <c r="C49" s="161"/>
+      <c r="D49" s="56"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="57"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="135" t="s">
+      <c r="C50" s="161"/>
+      <c r="D50" s="57"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="56"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
+  <mergeCells count="34">
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4088,11 +4199,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4107,16 +4218,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="V6" s="159" t="s">
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
+      <c r="V6" s="185" t="s">
         <v>239</v>
       </c>
-      <c r="W6" s="160"/>
-      <c r="X6" s="161"/>
+      <c r="W6" s="186"/>
+      <c r="X6" s="187"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4131,18 +4242,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="162">
+      <c r="G8" s="173">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="V8" s="162" t="e">
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="V8" s="173" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="163"/>
-      <c r="X8" s="164"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="175"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4150,12 +4261,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="167"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4163,12 +4274,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="167"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="167"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4176,19 +4287,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="170"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="181"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="181"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4212,11 +4323,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4269,18 +4380,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="172" t="s">
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="174"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="171"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4590,15 +4701,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4640,7 +4751,7 @@
   <dimension ref="B1:J85"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D45" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4657,15 +4768,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -6624,15 +6735,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="188" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -8575,10 +8686,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8589,10 +8700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="189" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="180"/>
+      <c r="B1" s="189"/>
       <c r="C1" s="107"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -8862,7 +8973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="112" t="s">
         <v>104</v>
       </c>
@@ -8870,13 +8981,30 @@
         <v>276</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="D19" s="117">
         <v>43641</v>
       </c>
-      <c r="E19" s="112" t="s">
-        <v>277</v>
+      <c r="E19" s="138" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="117">
+        <v>43642</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74493EE2-2D51-4B2D-B5CC-821C11AA5C5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C31C6-FA72-425D-BB66-92243DA49B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Aucune donnée sensible n'est incluse dans les sauvegardes générées par le système d'exploitation mobile.</t>
   </si>
   <si>
-    <t>L'application enlève les données sensibles des vues lors de son passage en arrière plan.</t>
-  </si>
-  <si>
     <t>L'application ne garde pas les données sensibles en mémoire plus longtemps que nécessaire et la mémoire est explicitement nettoyée après son utilisation.</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>L'application instruit l'utilisateur sur les types d'information personnellement identifiable traités ainsi que sur les bonnes pratiques que l'utilisateur devrait suivre en utilisant l'application.</t>
   </si>
   <si>
-    <t>L'application n'utilise pas la cryptographie symétrique avec des clés codées en dur comme seule méthode de cryptage.</t>
-  </si>
-  <si>
     <t>L'application utilise des implémentations de primitives cryptographiques éprouvées.</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
   </si>
   <si>
     <t>L'application ne ré-utilise pas la même clé de cryptographie à des fins différentes.</t>
-  </si>
-  <si>
-    <t>Toute valeur aléatoire est générée par un générateur de nombre aléatoire offrant un bon niveau de sécurité.</t>
   </si>
   <si>
     <t>Si l'application donne accès aux utilisateurs à un service distant, un certain niveau d'authentification, tel que l'authentification par nom d'utilisateur / mot de passe, est faite sur le point terminal distant.</t>
@@ -1006,6 +997,21 @@
   <si>
     <t>1.1.1.2</t>
   </si>
+  <si>
+    <t>L'application enlève les données sensibles des vues lors de son passage en arrière-plan.</t>
+  </si>
+  <si>
+    <t>L'application n'utilise pas la cryptographie symétrique avec des clés codées en dur comme seule méthode de chiffrement.</t>
+  </si>
+  <si>
+    <t>Toute valeur aléatoire est générée par un générateur de nombres aléatoires offrant un bon niveau de sécurité.</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Synchronisation la nomination des exigences de sécurité du fichier excel avec celles du MASVS</t>
+  </si>
 </sst>
 </file>
 
@@ -1014,9 +1020,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1920,148 +1933,127 @@
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,419 +2062,446 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3763,7 +3782,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3776,87 +3795,87 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="143" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="145" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="133" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="134"/>
       <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="157"/>
+      <c r="B11" s="159" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="159"/>
       <c r="D11" s="136" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="157" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="157"/>
+      <c r="B12" s="159" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="159"/>
       <c r="D12" s="137" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="155" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="156"/>
+      <c r="B13" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="158"/>
       <c r="D13" s="99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="78" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="98" t="str">
@@ -3866,14 +3885,14 @@
     </row>
     <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="100" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="103"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="101"/>
@@ -3886,235 +3905,235 @@
       <c r="D17" s="99"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="143" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="144"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="142"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="142"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="142"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="142"/>
+      <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="139" t="s">
+    </row>
+    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="139" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="139" t="s">
+      <c r="C23" s="142"/>
+      <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="12" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="139" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="140"/>
+      <c r="B27" s="141" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="142"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="140"/>
+      <c r="C28" s="142"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="140"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="166" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="167"/>
+      <c r="B30" s="168" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="169"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="77" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="139" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="140"/>
+      <c r="B34" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="142"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="140"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="140"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="164" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="165"/>
+      <c r="B37" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="167"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="154"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="158"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="160"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="162"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="161"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="141" t="s">
+      <c r="B42" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="161"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="161"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" s="161"/>
+      <c r="B44" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="163"/>
       <c r="D44" s="57"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="141" t="s">
+      <c r="B45" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="161"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="158"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="160"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="162"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="161"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="161"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="161"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="161"/>
+      <c r="B50" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="163"/>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="161"/>
+      <c r="C51" s="163"/>
       <c r="D51" s="56"/>
     </row>
   </sheetData>
@@ -4199,11 +4218,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4218,16 +4237,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="182" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
-      <c r="V6" s="185" t="s">
-        <v>239</v>
-      </c>
-      <c r="W6" s="186"/>
-      <c r="X6" s="187"/>
+      <c r="G6" s="180" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="V6" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="W6" s="184"/>
+      <c r="X6" s="185"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4242,18 +4261,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="173">
+      <c r="G8" s="171">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="V8" s="173" t="e">
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
+      <c r="V8" s="171" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="174"/>
-      <c r="X8" s="175"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="173"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4261,12 +4280,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="178"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="176"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="176"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4274,12 +4293,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="178"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="176"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="176"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4287,19 +4306,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="181"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="180"/>
-      <c r="X11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="179"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="179"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4323,11 +4342,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4380,18 +4399,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="169" t="s">
+      <c r="D41" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="169" t="s">
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="171"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="189"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4421,7 +4440,7 @@
     </row>
     <row r="43" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C43" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43" s="9">
         <v>5</v>
@@ -4456,7 +4475,7 @@
     </row>
     <row r="44" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C44" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D44" s="9">
         <v>5</v>
@@ -4596,7 +4615,7 @@
     </row>
     <row r="48" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C48" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D48" s="9">
         <v>6</v>
@@ -4631,7 +4650,7 @@
     </row>
     <row r="49" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C49" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D49" s="9">
         <v>6</v>
@@ -4701,8 +4720,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -4710,6 +4727,8 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4750,8 +4769,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D45" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4768,15 +4787,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -4792,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>91</v>
@@ -4804,10 +4823,10 @@
         <v>93</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -4815,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -4827,7 +4846,7 @@
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="139" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -4844,9 +4863,9 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -4863,7 +4882,7 @@
     </row>
     <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>122</v>
@@ -4882,9 +4901,9 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4901,9 +4920,9 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="139" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="32"/>
@@ -4920,7 +4939,7 @@
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>124</v>
@@ -4941,7 +4960,7 @@
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="48"/>
@@ -4958,7 +4977,7 @@
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>126</v>
@@ -4977,9 +4996,9 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="139" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="32"/>
@@ -4998,7 +5017,7 @@
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="139" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="32"/>
@@ -5018,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="49"/>
@@ -5066,7 +5085,7 @@
       <c r="B18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="139" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -5086,7 +5105,7 @@
       <c r="B19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="139" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -5106,7 +5125,7 @@
       <c r="B20" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="139" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -5126,7 +5145,7 @@
       <c r="B21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="139" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -5146,7 +5165,7 @@
       <c r="B22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="139" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -5166,7 +5185,7 @@
       <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="139" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="51"/>
@@ -5186,8 +5205,8 @@
       <c r="B24" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>137</v>
+      <c r="C24" s="139" t="s">
+        <v>280</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="46" t="s">
@@ -5207,7 +5226,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="46" t="s">
@@ -5227,7 +5246,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="46" t="s">
@@ -5247,7 +5266,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="46" t="s">
@@ -5279,8 +5298,8 @@
       <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>141</v>
+      <c r="C29" s="139" t="s">
+        <v>281</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>3</v>
@@ -5299,8 +5318,8 @@
       <c r="B30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>142</v>
+      <c r="C30" s="139" t="s">
+        <v>140</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>3</v>
@@ -5319,8 +5338,8 @@
       <c r="B31" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>143</v>
+      <c r="C31" s="140" t="s">
+        <v>141</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>3</v>
@@ -5340,7 +5359,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>3</v>
@@ -5359,8 +5378,8 @@
       <c r="B33" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>145</v>
+      <c r="C33" s="139" t="s">
+        <v>143</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>3</v>
@@ -5379,8 +5398,8 @@
       <c r="B34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>146</v>
+      <c r="C34" s="139" t="s">
+        <v>282</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>3</v>
@@ -5412,8 +5431,8 @@
       <c r="B36" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>147</v>
+      <c r="C36" s="140" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>3</v>
@@ -5432,8 +5451,8 @@
       <c r="B37" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>148</v>
+      <c r="C37" s="140" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>3</v>
@@ -5452,8 +5471,8 @@
       <c r="B38" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>149</v>
+      <c r="C38" s="140" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>3</v>
@@ -5473,8 +5492,8 @@
       <c r="B39" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>150</v>
+      <c r="C39" s="139" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="46"/>
@@ -5490,8 +5509,8 @@
       <c r="B40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>151</v>
+      <c r="C40" s="139" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>3</v>
@@ -5510,8 +5529,8 @@
       <c r="B41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="51" t="s">
-        <v>152</v>
+      <c r="C41" s="139" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>3</v>
@@ -5530,8 +5549,8 @@
       <c r="B42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="51" t="s">
-        <v>153</v>
+      <c r="C42" s="139" t="s">
+        <v>150</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>3</v>
@@ -5550,8 +5569,8 @@
       <c r="B43" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>154</v>
+      <c r="C43" s="139" t="s">
+        <v>151</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="46" t="s">
@@ -5571,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="46" t="s">
@@ -5590,8 +5609,8 @@
       <c r="B45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>156</v>
+      <c r="C45" s="139" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="46" t="s">
@@ -5610,8 +5629,8 @@
       <c r="B46" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>157</v>
+      <c r="C46" s="139" t="s">
+        <v>154</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="46" t="s">
@@ -5643,8 +5662,8 @@
       <c r="B48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>158</v>
+      <c r="C48" s="139" t="s">
+        <v>155</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>3</v>
@@ -5663,8 +5682,8 @@
       <c r="B49" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>159</v>
+      <c r="C49" s="139" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>3</v>
@@ -5683,8 +5702,8 @@
       <c r="B50" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="51" t="s">
-        <v>160</v>
+      <c r="C50" s="139" t="s">
+        <v>157</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>3</v>
@@ -5703,8 +5722,8 @@
       <c r="B51" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>161</v>
+      <c r="C51" s="139" t="s">
+        <v>158</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="46" t="s">
@@ -5723,8 +5742,8 @@
       <c r="B52" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>162</v>
+      <c r="C52" s="139" t="s">
+        <v>159</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="46" t="s">
@@ -5741,10 +5760,10 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>163</v>
+        <v>257</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>160</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="46" t="s">
@@ -5764,7 +5783,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="49"/>
@@ -5776,8 +5795,8 @@
       <c r="B55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="51" t="s">
-        <v>164</v>
+      <c r="C55" s="139" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>3</v>
@@ -5796,8 +5815,8 @@
       <c r="B56" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>165</v>
+      <c r="C56" s="139" t="s">
+        <v>162</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>3</v>
@@ -5816,8 +5835,8 @@
       <c r="B57" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>166</v>
+      <c r="C57" s="139" t="s">
+        <v>163</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>3</v>
@@ -5832,12 +5851,12 @@
       </c>
       <c r="H57" s="66"/>
     </row>
-    <row r="58" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="51" t="s">
-        <v>167</v>
+      <c r="C58" s="139" t="s">
+        <v>164</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>3</v>
@@ -5852,12 +5871,12 @@
       </c>
       <c r="H58" s="66"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="51" t="s">
-        <v>168</v>
+      <c r="C59" s="139" t="s">
+        <v>165</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>3</v>
@@ -5876,8 +5895,8 @@
       <c r="B60" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="51" t="s">
-        <v>169</v>
+      <c r="C60" s="139" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>3</v>
@@ -5894,10 +5913,10 @@
     </row>
     <row r="61" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>170</v>
+        <v>258</v>
+      </c>
+      <c r="C61" s="139" t="s">
+        <v>167</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>3</v>
@@ -5914,10 +5933,10 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>171</v>
+        <v>259</v>
+      </c>
+      <c r="C62" s="139" t="s">
+        <v>168</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>3</v>
@@ -5937,7 +5956,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="49"/>
@@ -5949,8 +5968,8 @@
       <c r="B64" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="51" t="s">
-        <v>173</v>
+      <c r="C64" s="139" t="s">
+        <v>170</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>3</v>
@@ -5965,12 +5984,12 @@
       </c>
       <c r="H64" s="66"/>
     </row>
-    <row r="65" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="51" t="s">
-        <v>174</v>
+      <c r="C65" s="139" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>3</v>
@@ -5989,8 +6008,8 @@
       <c r="B66" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="51" t="s">
-        <v>175</v>
+      <c r="C66" s="139" t="s">
+        <v>172</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>3</v>
@@ -6009,8 +6028,8 @@
       <c r="B67" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="51" t="s">
-        <v>176</v>
+      <c r="C67" s="139" t="s">
+        <v>173</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>3</v>
@@ -6029,8 +6048,8 @@
       <c r="B68" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>177</v>
+      <c r="C68" s="139" t="s">
+        <v>174</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>3</v>
@@ -6049,8 +6068,8 @@
       <c r="B69" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>178</v>
+      <c r="C69" s="139" t="s">
+        <v>175</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>3</v>
@@ -6069,8 +6088,8 @@
       <c r="B70" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="51" t="s">
-        <v>179</v>
+      <c r="C70" s="139" t="s">
+        <v>176</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>3</v>
@@ -6092,8 +6111,8 @@
       <c r="B71" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="51" t="s">
-        <v>180</v>
+      <c r="C71" s="139" t="s">
+        <v>177</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>3</v>
@@ -6112,8 +6131,8 @@
       <c r="B72" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="51" t="s">
-        <v>181</v>
+      <c r="C72" s="139" t="s">
+        <v>178</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>3</v>
@@ -6166,7 +6185,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="41"/>
@@ -6177,7 +6196,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>96</v>
@@ -6190,10 +6209,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -6203,7 +6222,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C80" s="44" t="s">
         <v>97</v>
@@ -6219,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -6289,7 +6308,7 @@
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6335,16 +6354,16 @@
         <v>93</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="70"/>
       <c r="C4" s="71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
@@ -6353,10 +6372,10 @@
     </row>
     <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>185</v>
+        <v>260</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>3</v>
@@ -6372,10 +6391,10 @@
     </row>
     <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>186</v>
+        <v>261</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>3</v>
@@ -6391,10 +6410,10 @@
     </row>
     <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>187</v>
+        <v>262</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>184</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>3</v>
@@ -6410,10 +6429,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>188</v>
+        <v>263</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>3</v>
@@ -6429,10 +6448,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>189</v>
+        <v>264</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>186</v>
       </c>
       <c r="D9" s="74" t="s">
         <v>3</v>
@@ -6448,10 +6467,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>190</v>
+        <v>265</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>3</v>
@@ -6467,10 +6486,10 @@
     </row>
     <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>191</v>
+        <v>266</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>188</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>3</v>
@@ -6479,16 +6498,16 @@
         <v>63</v>
       </c>
       <c r="F11" s="121" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>192</v>
+        <v>267</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>3</v>
@@ -6503,10 +6522,10 @@
     </row>
     <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>193</v>
+        <v>268</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>190</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>3</v>
@@ -6534,8 +6553,8 @@
       <c r="B15" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>194</v>
+      <c r="C15" s="139" t="s">
+        <v>191</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>3</v>
@@ -6561,10 +6580,10 @@
     </row>
     <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>195</v>
+        <v>269</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>192</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>3</v>
@@ -6580,10 +6599,10 @@
     </row>
     <row r="18" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>196</v>
+        <v>270</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>193</v>
       </c>
       <c r="D18" s="74" t="s">
         <v>3</v>
@@ -6592,7 +6611,7 @@
         <v>63</v>
       </c>
       <c r="F18" s="120" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G18" s="73"/>
     </row>
@@ -6622,7 +6641,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
@@ -6632,7 +6651,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>96</v>
@@ -6644,10 +6663,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
@@ -6656,7 +6675,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>97</v>
@@ -6671,7 +6690,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -6717,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6735,15 +6754,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="188" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="B1" s="190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="45"/>
@@ -6759,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>91</v>
@@ -6771,10 +6790,10 @@
         <v>93</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -6782,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -6794,7 +6813,7 @@
       <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="139" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -6811,9 +6830,9 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -6830,7 +6849,7 @@
     </row>
     <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>122</v>
@@ -6849,9 +6868,9 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -6868,9 +6887,9 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="139" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="32"/>
@@ -6887,7 +6906,7 @@
     </row>
     <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>124</v>
@@ -6908,7 +6927,7 @@
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="48"/>
@@ -6925,7 +6944,7 @@
     </row>
     <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>126</v>
@@ -6944,9 +6963,9 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="139" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="32"/>
@@ -6965,7 +6984,7 @@
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="139" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="32"/>
@@ -6985,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="49"/>
@@ -7033,7 +7052,7 @@
       <c r="B18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="139" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -7053,7 +7072,7 @@
       <c r="B19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="139" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -7073,7 +7092,7 @@
       <c r="B20" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="139" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -7093,7 +7112,7 @@
       <c r="B21" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="139" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -7113,7 +7132,7 @@
       <c r="B22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="139" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -7133,7 +7152,7 @@
       <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="139" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="51"/>
@@ -7153,8 +7172,8 @@
       <c r="B24" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>137</v>
+      <c r="C24" s="139" t="s">
+        <v>280</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="46" t="s">
@@ -7174,7 +7193,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="46" t="s">
@@ -7194,7 +7213,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="46" t="s">
@@ -7214,7 +7233,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="46" t="s">
@@ -7246,8 +7265,8 @@
       <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>141</v>
+      <c r="C29" s="139" t="s">
+        <v>281</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>3</v>
@@ -7266,8 +7285,8 @@
       <c r="B30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>142</v>
+      <c r="C30" s="139" t="s">
+        <v>140</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>3</v>
@@ -7286,8 +7305,8 @@
       <c r="B31" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>143</v>
+      <c r="C31" s="140" t="s">
+        <v>141</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>3</v>
@@ -7307,7 +7326,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>3</v>
@@ -7326,8 +7345,8 @@
       <c r="B33" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="51" t="s">
-        <v>145</v>
+      <c r="C33" s="139" t="s">
+        <v>143</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>3</v>
@@ -7346,8 +7365,8 @@
       <c r="B34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="51" t="s">
-        <v>146</v>
+      <c r="C34" s="139" t="s">
+        <v>282</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>3</v>
@@ -7379,8 +7398,8 @@
       <c r="B36" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="51" t="s">
-        <v>147</v>
+      <c r="C36" s="140" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>3</v>
@@ -7399,8 +7418,8 @@
       <c r="B37" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>148</v>
+      <c r="C37" s="140" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>3</v>
@@ -7419,8 +7438,8 @@
       <c r="B38" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>149</v>
+      <c r="C38" s="140" t="s">
+        <v>146</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>3</v>
@@ -7440,8 +7459,8 @@
       <c r="B39" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>150</v>
+      <c r="C39" s="139" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="46"/>
@@ -7457,8 +7476,8 @@
       <c r="B40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>151</v>
+      <c r="C40" s="139" t="s">
+        <v>148</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>3</v>
@@ -7477,8 +7496,8 @@
       <c r="B41" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="51" t="s">
-        <v>152</v>
+      <c r="C41" s="139" t="s">
+        <v>149</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>3</v>
@@ -7497,8 +7516,8 @@
       <c r="B42" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="51" t="s">
-        <v>153</v>
+      <c r="C42" s="139" t="s">
+        <v>150</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>3</v>
@@ -7517,8 +7536,8 @@
       <c r="B43" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>154</v>
+      <c r="C43" s="139" t="s">
+        <v>151</v>
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="46" t="s">
@@ -7538,7 +7557,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="46" t="s">
@@ -7557,8 +7576,8 @@
       <c r="B45" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>156</v>
+      <c r="C45" s="139" t="s">
+        <v>153</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="46" t="s">
@@ -7577,8 +7596,8 @@
       <c r="B46" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>157</v>
+      <c r="C46" s="139" t="s">
+        <v>154</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="46" t="s">
@@ -7613,8 +7632,8 @@
       <c r="B48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>158</v>
+      <c r="C48" s="139" t="s">
+        <v>155</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>3</v>
@@ -7636,8 +7655,8 @@
       <c r="B49" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="s">
-        <v>159</v>
+      <c r="C49" s="139" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>3</v>
@@ -7659,8 +7678,8 @@
       <c r="B50" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="51" t="s">
-        <v>160</v>
+      <c r="C50" s="139" t="s">
+        <v>157</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>3</v>
@@ -7679,8 +7698,8 @@
       <c r="B51" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>161</v>
+      <c r="C51" s="139" t="s">
+        <v>158</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="46" t="s">
@@ -7699,8 +7718,8 @@
       <c r="B52" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>162</v>
+      <c r="C52" s="139" t="s">
+        <v>159</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="46" t="s">
@@ -7717,10 +7736,10 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>163</v>
+        <v>257</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>160</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="46" t="s">
@@ -7743,7 +7762,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="49"/>
@@ -7755,8 +7774,8 @@
       <c r="B55" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="51" t="s">
-        <v>164</v>
+      <c r="C55" s="139" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>3</v>
@@ -7775,8 +7794,8 @@
       <c r="B56" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>165</v>
+      <c r="C56" s="139" t="s">
+        <v>162</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>3</v>
@@ -7795,8 +7814,8 @@
       <c r="B57" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="51" t="s">
-        <v>166</v>
+      <c r="C57" s="139" t="s">
+        <v>163</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>3</v>
@@ -7815,8 +7834,8 @@
       <c r="B58" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="51" t="s">
-        <v>167</v>
+      <c r="C58" s="139" t="s">
+        <v>164</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>3</v>
@@ -7838,8 +7857,8 @@
       <c r="B59" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="51" t="s">
-        <v>168</v>
+      <c r="C59" s="139" t="s">
+        <v>165</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>3</v>
@@ -7858,8 +7877,8 @@
       <c r="B60" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="51" t="s">
-        <v>169</v>
+      <c r="C60" s="139" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>3</v>
@@ -7876,10 +7895,10 @@
     </row>
     <row r="61" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>170</v>
+        <v>258</v>
+      </c>
+      <c r="C61" s="139" t="s">
+        <v>167</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>3</v>
@@ -7896,10 +7915,10 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>171</v>
+        <v>259</v>
+      </c>
+      <c r="C62" s="139" t="s">
+        <v>168</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>3</v>
@@ -7919,7 +7938,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="49"/>
@@ -7931,8 +7950,8 @@
       <c r="B64" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="51" t="s">
-        <v>173</v>
+      <c r="C64" s="139" t="s">
+        <v>170</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>3</v>
@@ -7951,8 +7970,8 @@
       <c r="B65" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="51" t="s">
-        <v>174</v>
+      <c r="C65" s="139" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>3</v>
@@ -7971,8 +7990,8 @@
       <c r="B66" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="51" t="s">
-        <v>175</v>
+      <c r="C66" s="139" t="s">
+        <v>172</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>3</v>
@@ -7991,8 +8010,8 @@
       <c r="B67" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="51" t="s">
-        <v>176</v>
+      <c r="C67" s="139" t="s">
+        <v>173</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>3</v>
@@ -8011,8 +8030,8 @@
       <c r="B68" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>177</v>
+      <c r="C68" s="139" t="s">
+        <v>174</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>3</v>
@@ -8031,8 +8050,8 @@
       <c r="B69" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="51" t="s">
-        <v>178</v>
+      <c r="C69" s="139" t="s">
+        <v>175</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>3</v>
@@ -8051,8 +8070,8 @@
       <c r="B70" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="51" t="s">
-        <v>179</v>
+      <c r="C70" s="139" t="s">
+        <v>176</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>3</v>
@@ -8071,8 +8090,8 @@
       <c r="B71" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="51" t="s">
-        <v>180</v>
+      <c r="C71" s="139" t="s">
+        <v>177</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>3</v>
@@ -8091,8 +8110,8 @@
       <c r="B72" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="51" t="s">
-        <v>181</v>
+      <c r="C72" s="139" t="s">
+        <v>178</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>3</v>
@@ -8145,7 +8164,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="41"/>
@@ -8156,7 +8175,7 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>96</v>
@@ -8169,10 +8188,10 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -8182,7 +8201,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C80" s="44" t="s">
         <v>97</v>
@@ -8198,7 +8217,7 @@
         <v>63</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -8263,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8308,10 +8327,10 @@
         <v>93</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -8319,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
@@ -8328,10 +8347,10 @@
     </row>
     <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>185</v>
+        <v>260</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>3</v>
@@ -8347,10 +8366,10 @@
     </row>
     <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>186</v>
+        <v>261</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>3</v>
@@ -8366,10 +8385,10 @@
     </row>
     <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="72" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>187</v>
+        <v>262</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>184</v>
       </c>
       <c r="D7" s="74" t="s">
         <v>3</v>
@@ -8385,10 +8404,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>188</v>
+        <v>263</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>3</v>
@@ -8403,10 +8422,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>189</v>
+        <v>264</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>186</v>
       </c>
       <c r="D9" s="74" t="s">
         <v>3</v>
@@ -8421,10 +8440,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>190</v>
+        <v>265</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>3</v>
@@ -8439,10 +8458,10 @@
     </row>
     <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>191</v>
+        <v>266</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>188</v>
       </c>
       <c r="D11" s="74" t="s">
         <v>3</v>
@@ -8457,10 +8476,10 @@
     </row>
     <row r="12" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>192</v>
+        <v>267</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>3</v>
@@ -8475,10 +8494,10 @@
     </row>
     <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>193</v>
+        <v>268</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>190</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>3</v>
@@ -8505,8 +8524,8 @@
       <c r="B15" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>194</v>
+      <c r="C15" s="139" t="s">
+        <v>191</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>3</v>
@@ -8532,10 +8551,10 @@
     </row>
     <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>195</v>
+        <v>269</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>192</v>
       </c>
       <c r="D17" s="74" t="s">
         <v>3</v>
@@ -8550,10 +8569,10 @@
     </row>
     <row r="18" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>196</v>
+        <v>270</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>193</v>
       </c>
       <c r="D18" s="74" t="s">
         <v>3</v>
@@ -8592,7 +8611,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="41"/>
@@ -8602,7 +8621,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>96</v>
@@ -8614,10 +8633,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
@@ -8626,7 +8645,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>97</v>
@@ -8641,7 +8660,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -8686,10 +8705,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8700,10 +8719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="189"/>
+      <c r="B1" s="191"/>
       <c r="C1" s="107"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
@@ -8716,13 +8735,13 @@
         <v>64</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D2" s="61" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -8752,7 +8771,7 @@
         <v>42766</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -8782,7 +8801,7 @@
         <v>42780</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8812,7 +8831,7 @@
         <v>42829</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8827,7 +8846,7 @@
         <v>42919</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -8842,7 +8861,7 @@
         <v>42963</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -8857,7 +8876,7 @@
         <v>43113</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -8872,7 +8891,7 @@
         <v>43289</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -8880,7 +8899,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="60">
@@ -8895,7 +8914,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="60">
@@ -8907,19 +8926,19 @@
     </row>
     <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="104" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D15" s="106">
         <v>43471</v>
       </c>
       <c r="E15" s="119" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8927,33 +8946,33 @@
         <v>104</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D16" s="90">
         <v>43475</v>
       </c>
       <c r="E16" s="89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="113" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D17" s="115">
         <v>43476</v>
       </c>
       <c r="E17" s="118" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8961,16 +8980,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D18" s="131">
         <v>43478</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8978,33 +8997,50 @@
         <v>104</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D19" s="117">
         <v>43641</v>
       </c>
       <c r="E19" s="138" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="112" t="s">
         <v>104</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D20" s="117">
         <v>43642</v>
       </c>
       <c r="E20" s="112" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="117">
+        <v>43645</v>
+      </c>
+      <c r="E21" s="112" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C31C6-FA72-425D-BB66-92243DA49B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65DD3B7-2134-4A82-A5D4-9AE79EB5526B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,9 @@
     <t>1.1.1.3</t>
   </si>
   <si>
-    <t>Synchronisation la nomination des exigences de sécurité du fichier excel avec celles du MASVS</t>
+    <t>Synchronisation la nomination des exigences de sécurité du fichier excel avec celles du MASVS
+modification:
+3.1</t>
   </si>
 </sst>
 </file>
@@ -2354,13 +2356,49 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2395,12 +2433,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2410,35 +2442,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2485,18 +2499,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3795,48 +3797,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="148"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="151"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="133" t="s">
@@ -3846,29 +3848,29 @@
       <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="159"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="136" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="137" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="158"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="99" t="s">
         <v>272</v>
       </c>
@@ -3905,55 +3907,55 @@
       <c r="D17" s="99"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="142"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="142"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="142"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -3970,37 +3972,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="146" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="142"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="142"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="142"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="169"/>
+      <c r="C30" s="155"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4017,37 +4019,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="142"/>
+      <c r="C34" s="147"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="142"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="142"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="152" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="153"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="149"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4057,97 +4059,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="162"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="163"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="163"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="143" t="s">
+      <c r="B43" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="163"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="163"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="57"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="163"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="160"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="162"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="163"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="163"/>
+      <c r="C48" s="142"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="163"/>
+      <c r="C49" s="142"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="163"/>
+      <c r="C50" s="142"/>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="163"/>
+      <c r="C51" s="142"/>
       <c r="D51" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4162,16 +4164,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4218,11 +4220,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4237,16 +4239,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="184" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
-      <c r="V6" s="183" t="s">
+      <c r="H6" s="185"/>
+      <c r="I6" s="186"/>
+      <c r="V6" s="187" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="184"/>
-      <c r="X6" s="185"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="189"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4261,18 +4263,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="171">
+      <c r="G8" s="175">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="173"/>
-      <c r="V8" s="171" t="e">
+      <c r="H8" s="176"/>
+      <c r="I8" s="177"/>
+      <c r="V8" s="175" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="172"/>
-      <c r="X8" s="173"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4280,12 +4282,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="176"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="176"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="180"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4293,12 +4295,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="176"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="176"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4306,19 +4308,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="179"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="183"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="183"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4342,11 +4344,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4399,18 +4401,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="187" t="s">
+      <c r="D41" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="187" t="s">
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="189"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="173"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4720,6 +4722,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -4727,8 +4731,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4769,7 +4771,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
@@ -6307,7 +6309,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8708,7 +8710,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9026,7 +9028,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="112" t="s">
         <v>104</v>
       </c>
@@ -9037,9 +9039,9 @@
         <v>275</v>
       </c>
       <c r="D21" s="117">
-        <v>43645</v>
-      </c>
-      <c r="E21" s="112" t="s">
+        <v>43649</v>
+      </c>
+      <c r="E21" s="138" t="s">
         <v>284</v>
       </c>
     </row>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65DD3B7-2134-4A82-A5D4-9AE79EB5526B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ACCC59-414B-4B16-A21B-42E0E3C0CF21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="286">
   <si>
     <t>ID</t>
   </si>
@@ -1013,6 +1013,9 @@
     <t>Synchronisation la nomination des exigences de sécurité du fichier excel avec celles du MASVS
 modification:
 3.1</t>
+  </si>
+  <si>
+    <t>Mise à jour du lien 2.12 pour IOS</t>
   </si>
 </sst>
 </file>
@@ -2356,32 +2359,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2400,47 +2445,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2455,33 +2494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2489,15 +2501,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3797,48 +3800,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="133" t="s">
@@ -3848,29 +3851,29 @@
       <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="169"/>
+      <c r="C11" s="159"/>
       <c r="D11" s="136" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="159" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="169"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="137" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="157" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="168"/>
+      <c r="C13" s="158"/>
       <c r="D13" s="99" t="s">
         <v>272</v>
       </c>
@@ -3907,55 +3910,55 @@
       <c r="D17" s="99"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="156"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="147"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="147"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="147"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="147"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -3972,37 +3975,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="147"/>
+      <c r="C27" s="142"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="147"/>
+      <c r="C28" s="142"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="147"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="168" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="155"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4019,37 +4022,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="147"/>
+      <c r="C34" s="142"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="147"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="147"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="153"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="149"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4059,97 +4062,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="145"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="162"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="141" t="s">
+      <c r="B42" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="142"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="141" t="s">
+      <c r="B44" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="163"/>
       <c r="D44" s="57"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="141" t="s">
+      <c r="B45" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="142"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="143"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="145"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="162"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="141" t="s">
+      <c r="B47" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="142"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="142"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="142"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="141" t="s">
+      <c r="B50" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="142"/>
+      <c r="C50" s="163"/>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="142"/>
+      <c r="C51" s="163"/>
       <c r="D51" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4164,16 +4167,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4220,11 +4223,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4239,16 +4242,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="186"/>
-      <c r="V6" s="187" t="s">
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
+      <c r="V6" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="188"/>
-      <c r="X6" s="189"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="172"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4263,18 +4266,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="175">
+      <c r="G8" s="173">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="177"/>
-      <c r="V8" s="175" t="e">
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="V8" s="173" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="176"/>
-      <c r="X8" s="177"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="175"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4282,12 +4285,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="180"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4295,12 +4298,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4308,19 +4311,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="183"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="181"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="181"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4344,11 +4347,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4401,18 +4404,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="171" t="s">
+      <c r="D41" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="171" t="s">
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="173"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="185"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4722,15 +4725,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4771,8 +4774,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" topLeftCell="C59" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5464,8 +5467,8 @@
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Tester la gestion de sessions")</f>
-        <v>Tester la gestion de sessions</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Tester l'Authentification avec état")</f>
+        <v>Tester l'Authentification avec état</v>
       </c>
       <c r="H37" s="66"/>
     </row>
@@ -6309,8 +6312,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6738,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7245,8 +7248,8 @@
         <v>63</v>
       </c>
       <c r="G27" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),"Tester l'existence d'une politique de sécurité d'accès au mobile")</f>
-        <v>Tester l'existence d'une politique de sécurité d'accès au mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Eduction d'utilisateur")</f>
+        <v>Eduction d'utilisateur</v>
       </c>
       <c r="H27" s="66"/>
     </row>
@@ -8284,8 +8287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8707,10 +8710,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9028,7 +9031,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="112" t="s">
         <v>104</v>
       </c>
@@ -9043,6 +9046,23 @@
       </c>
       <c r="E21" s="138" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="117">
+        <v>43672</v>
+      </c>
+      <c r="E22" s="138" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abderrahmane.LAPTOP-NBPOQCF6\Personal\R&amp;D\OWASP\MSTG\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ACCC59-414B-4B16-A21B-42E0E3C0CF21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F5D5A-A43B-4D9C-9E15-851D7F8F81FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>Mise à jour du lien 2.12 pour IOS</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>Synchronisation des descriptions des liens avec MSTG.</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2359,13 +2365,49 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2400,12 +2442,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2415,35 +2451,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2454,33 +2497,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2493,21 +2509,17 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -3800,48 +3812,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="148"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="151"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="133" t="s">
@@ -3851,29 +3863,29 @@
       <c r="D10" s="135"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="159"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="136" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="137" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="158"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="99" t="s">
         <v>272</v>
       </c>
@@ -3910,55 +3922,55 @@
       <c r="D17" s="99"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="142"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="142"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="142"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="142"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="142"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
@@ -3975,37 +3987,37 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="146" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="142"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="142"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="142"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="169"/>
+      <c r="C30" s="155"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
@@ -4022,37 +4034,37 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="142"/>
+      <c r="C34" s="147"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="142"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="142"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="152" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="153"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="149"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
@@ -4062,97 +4074,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="162"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="163"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="163"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="143" t="s">
+      <c r="B43" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="163"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="163"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="57"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="163"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="56"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="160"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="162"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="163"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="163"/>
+      <c r="C48" s="142"/>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="163"/>
+      <c r="C49" s="142"/>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="163"/>
+      <c r="C50" s="142"/>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="163"/>
+      <c r="C51" s="142"/>
       <c r="D51" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4167,16 +4179,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4223,11 +4235,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -4242,16 +4254,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="187" t="s">
+      <c r="G6" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="V6" s="170" t="s">
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
+      <c r="V6" s="183" t="s">
         <v>236</v>
       </c>
-      <c r="W6" s="171"/>
-      <c r="X6" s="172"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="185"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -4266,18 +4278,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="173">
+      <c r="G8" s="171">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="V8" s="173" t="e">
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
+      <c r="V8" s="171" t="e">
         <f>AVERAGE(K43:K50)*5</f>
         <v>#REF!</v>
       </c>
-      <c r="W8" s="174"/>
-      <c r="X8" s="175"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="173"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
@@ -4285,12 +4297,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="178"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="176"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="176"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
@@ -4298,12 +4310,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="178"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="176"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="176"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -4311,19 +4323,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="181"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="180"/>
-      <c r="X11" s="181"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="179"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="179"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -4347,11 +4359,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
@@ -4404,18 +4416,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="3:11" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="D41" s="183" t="s">
+      <c r="D41" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="183" t="s">
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="185"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="189"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
@@ -4725,15 +4737,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
     <cfRule type="iconSet" priority="3">
@@ -4774,7 +4786,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C59" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B57" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -4786,7 +4798,7 @@
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5" customWidth="1"/>
     <col min="8" max="8" width="58.08203125" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" customWidth="1"/>
   </cols>
@@ -5065,8 +5077,8 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="92" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Tester les données sensibles dans le stockage local du mobile")</f>
-        <v>Tester les données sensibles dans le stockage local du mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H16" s="66"/>
     </row>
@@ -5081,8 +5093,8 @@
       <c r="E17" s="46"/>
       <c r="F17" s="33"/>
       <c r="G17" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Tester les données sensibles dans le stockage local du mobile")</f>
-        <v>Tester les données sensibles dans le stockage local du mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H17" s="66"/>
     </row>
@@ -5101,8 +5113,8 @@
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),"Tester les données sensibles dans les fichiers de logs")</f>
-        <v>Tester les données sensibles dans les fichiers de logs</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),"Testing Logs for Sensitive Data")</f>
+        <v>Testing Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="66"/>
     </row>
@@ -5121,12 +5133,12 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Tester si des données sensibles sont envoyés à une entité tièrce")</f>
-        <v>Tester si des données sensibles sont envoyés à une entité tièrce</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Determining Whether Sensitive Data is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
       </c>
       <c r="H19" s="66"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B20" s="50" t="s">
         <v>41</v>
       </c>
@@ -5140,13 +5152,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),"Tester si le cache de clavier est désactivé dans les champs d'entrée du text")</f>
-        <v>Tester si le cache de clavier est désactivé dans les champs d'entrée du text</v>
+      <c r="G20" s="192" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
       <c r="H20" s="66"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B21" s="50" t="s">
         <v>9</v>
       </c>
@@ -5160,9 +5172,9 @@
         <v>3</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),"Vérifier si les données sensibles sont exposées via des méchanismes IPC")</f>
-        <v>Vérifier si les données sensibles sont exposées via des méchanismes IPC</v>
+      <c r="G21" s="192" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="66"/>
     </row>
@@ -5181,8 +5193,8 @@
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),"Tester si des données sensibles sont exposées via l'interface utilisateur")</f>
-        <v>Tester si des données sensibles sont exposées via l'interface utilisateur</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),"Checking for Sensitive Data Disclosure Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
       </c>
       <c r="H22" s="66"/>
     </row>
@@ -5201,8 +5213,8 @@
         <v>63</v>
       </c>
       <c r="G23" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Tester l'éxistence de données sensibles dans les backups")</f>
-        <v>Tester l'éxistence de données sensibles dans les backups</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="66"/>
     </row>
@@ -5221,8 +5233,8 @@
         <v>63</v>
       </c>
       <c r="G24" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),"Tester l'existence des données sensibles dans les captures généré automatiquement")</f>
-        <v>Tester l'existence des données sensibles dans les captures généré automatiquement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),"Finding Sensitive Information in Auto-Generated Screenshots")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
       </c>
       <c r="H24" s="66"/>
     </row>
@@ -5241,8 +5253,8 @@
         <v>63</v>
       </c>
       <c r="G25" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),"Tester l'existence des données sensibles dans la mémoire")</f>
-        <v>Tester l'existence des données sensibles dans la mémoire</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),"Checking Memory for Sensitive Data")</f>
+        <v>Checking Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="66"/>
     </row>
@@ -5261,8 +5273,8 @@
         <v>63</v>
       </c>
       <c r="G26" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),"Tester l'existence d'une politique de sécurité d'accès au mobile")</f>
-        <v>Tester l'existence d'une politique de sécurité d'accès au mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),"Testing the Device-Access-Security Policy")</f>
+        <v>Testing the Device-Access-Security Policy</v>
       </c>
       <c r="H26" s="66"/>
     </row>
@@ -5281,8 +5293,8 @@
         <v>63</v>
       </c>
       <c r="G27" s="124" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Eduction d'utilisateur")</f>
-        <v>Eduction d'utilisateur</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="66"/>
     </row>
@@ -5314,8 +5326,8 @@
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Vérification de la gestion des clés")</f>
-        <v>Vérification de la gestion des clés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="66"/>
     </row>
@@ -5334,8 +5346,8 @@
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),"Tester l'existence des implémentations personnalisées des primitives cryptographiques")</f>
-        <v>Tester l'existence des implémentations personnalisées des primitives cryptographiques</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),"Cryptography for Mobile Apps")</f>
+        <v>Cryptography for Mobile Apps</v>
       </c>
       <c r="H30" s="66"/>
     </row>
@@ -5354,8 +5366,8 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Vérification de la configuration des algorithms standards de la cryptographie")</f>
-        <v>Vérification de la configuration des algorithms standards de la cryptographie</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
       <c r="H31" s="66"/>
     </row>
@@ -5374,8 +5386,8 @@
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Tester les algorithms de cryptographie non sécurisé et/ou obsolète")</f>
-        <v>Tester les algorithms de cryptographie non sécurisé et/ou obsolète</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="66"/>
     </row>
@@ -5394,8 +5406,8 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Vérification de la gestion des clés")</f>
-        <v>Vérification de la gestion des clés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="66"/>
     </row>
@@ -5414,8 +5426,8 @@
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation")," Tester les générateurs  aléatoires des chiffres")</f>
-        <v xml:space="preserve"> Tester les générateurs  aléatoires des chiffres</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05e-Testing-Cryptography.md#testing-random-number-generation")," Testing Random Number Generation")</f>
+        <v xml:space="preserve"> Testing Random Number Generation</v>
       </c>
       <c r="H34" s="66"/>
     </row>
@@ -5447,8 +5459,8 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Vérification que l'utilisateur a été authentifier proprement")</f>
-        <v>Vérification que l'utilisateur a été authentifier proprement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="66"/>
     </row>
@@ -5467,8 +5479,8 @@
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Tester l'Authentification avec état")</f>
-        <v>Tester l'Authentification avec état</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
       </c>
       <c r="H37" s="66"/>
     </row>
@@ -5487,8 +5499,8 @@
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Tester l'Authentification sans état (stateless/passive)")</f>
-        <v>Tester l'Authentification sans état (stateless/passive)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="66"/>
       <c r="J38" s="52"/>
@@ -5504,8 +5516,8 @@
       <c r="E39" s="46"/>
       <c r="F39" s="33"/>
       <c r="G39" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"Tester la fonctionalité du logout")</f>
-        <v>Tester la fonctionalité du logout</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="66"/>
       <c r="J39" s="52"/>
@@ -5525,8 +5537,8 @@
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),"Tester la politique des mots de pass")</f>
-        <v>Tester la politique des mots de pass</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="66"/>
     </row>
@@ -5545,8 +5557,8 @@
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Tester les tentatives de login excessives ")</f>
-        <v xml:space="preserve">Tester les tentatives de login excessives </v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="66"/>
     </row>
@@ -5565,8 +5577,8 @@
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Tester le Timeout de la Session")</f>
-        <v>Tester le Timeout de la Session</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="52"/>
     </row>
@@ -5585,8 +5597,8 @@
         <v>63</v>
       </c>
       <c r="G43" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),"Tester l'authentification Biometric")</f>
-        <v>Tester l'authentification Biometric</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),"Testing Biometric Authentication")</f>
+        <v>Testing Biometric Authentication</v>
       </c>
       <c r="H43" s="66"/>
     </row>
@@ -5605,8 +5617,8 @@
         <v>63</v>
       </c>
       <c r="G44" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Tester l'uthentification double. (Authentification par deux facteurs)")</f>
-        <v>Tester l'uthentification double. (Authentification par deux facteurs)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="66"/>
     </row>
@@ -5625,8 +5637,8 @@
         <v>63</v>
       </c>
       <c r="G45" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"Tester l'authentification au démarrage")</f>
-        <v>Tester l'authentification au démarrage</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="66"/>
     </row>
@@ -5645,8 +5657,8 @@
         <v>63</v>
       </c>
       <c r="G46" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),"Vérification de la bonne détection des différents comptes")</f>
-        <v>Vérification de la bonne détection des différents comptes</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="66"/>
     </row>
@@ -5678,8 +5690,8 @@
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Vérification du cryptage des données sensibles dans le réseau")</f>
-        <v>Vérification du cryptage des données sensibles dans le réseau</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="66"/>
     </row>
@@ -5698,8 +5710,8 @@
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Vérification des réglages de TLS")</f>
-        <v>Vérification des réglages de TLS</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="66"/>
     </row>
@@ -5718,8 +5730,8 @@
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),"Tester la vérification du validité du point terminal")</f>
-        <v>Tester la vérification du validité du point terminal</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),"Testing Endpoint Identify Verification")</f>
+        <v>Testing Endpoint Identify Verification</v>
       </c>
       <c r="H50" s="126"/>
     </row>
@@ -5738,8 +5750,8 @@
         <v>63</v>
       </c>
       <c r="G51" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Tester les magasins de certificats personnalisées et l'épinglage de certificats")</f>
-        <v>Tester les magasins de certificats personnalisées et l'épinglage de certificats</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="66"/>
     </row>
@@ -5758,8 +5770,8 @@
         <v>63</v>
       </c>
       <c r="G52" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Vérification que les opérations critiques utilisent des canals de communications sécurisés")</f>
-        <v>Vérification que les opérations critiques utilisent des canals de communications sécurisés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="66"/>
     </row>
@@ -5778,8 +5790,8 @@
         <v>63</v>
       </c>
       <c r="G53" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider"),"Vérification du fournisseur de sécurité 'Security Provider'")</f>
-        <v>Vérification du fournisseur de sécurité 'Security Provider'</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05g-Testing-Network-Communication.md#testing-the-security-provider"),"Testing the Security Provider")</f>
+        <v>Testing the Security Provider</v>
       </c>
       <c r="H53" s="66"/>
     </row>
@@ -5811,8 +5823,8 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),"Tester les permissions de l'App")</f>
-        <v>Tester les permissions de l'App</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),"Testing App Permissions")</f>
+        <v>Testing App Permissions</v>
       </c>
       <c r="H55" s="66"/>
     </row>
@@ -5831,8 +5843,8 @@
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Tester la validation et l'assainissement des entrées")</f>
-        <v>Tester la validation et l'assainissement des entrées</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="66"/>
     </row>
@@ -5851,8 +5863,8 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Tester les schémas d'URL propres à l'application")</f>
-        <v>Tester les schémas d'URL propres à l'application</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Testing Custom URL Schemes")</f>
+        <v>Testing Custom URL Schemes</v>
       </c>
       <c r="H57" s="66"/>
     </row>
@@ -5871,8 +5883,8 @@
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),"Tester l'exportation des fonctionnalités sensibles à travers les possibilités IPC")</f>
-        <v>Tester l'exportation des fonctionnalités sensibles à travers les possibilités IPC</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="66"/>
     </row>
@@ -5891,8 +5903,8 @@
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),"Tester l'execution du Javascript dans les WebViews")</f>
-        <v>Tester l'execution du Javascript dans les WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),"Testing JavaScript Execution in WebViews")</f>
+        <v>Testing JavaScript Execution in WebViews</v>
       </c>
       <c r="H59" s="66"/>
     </row>
@@ -5911,8 +5923,8 @@
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Tester les gestionnaires de protocoles dans les WebViews")</f>
-        <v>Tester les gestionnaires de protocoles dans les WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Testing WebView Protocol Handlers")</f>
+        <v>Testing WebView Protocol Handlers</v>
       </c>
       <c r="H60" s="66"/>
     </row>
@@ -5931,8 +5943,8 @@
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),"Tester si des Objets Java sont exposés par des WebViews")</f>
-        <v>Tester si des Objets Java sont exposés par des WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),"Determining Whether Java Objects Are Exposed Through WebViews")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="66"/>
     </row>
@@ -5951,8 +5963,8 @@
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),"Tester la (Dé-)Sérialisation des Objets")</f>
-        <v>Tester la (Dé-)Sérialisation des Objets</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="66"/>
     </row>
@@ -5984,8 +5996,8 @@
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Vérifier que l'application est signée proprement")</f>
-        <v>Vérifier que l'application est signée proprement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Making Sure That the App is Properly Signed")</f>
+        <v>Making Sure That the App is Properly Signed</v>
       </c>
       <c r="H64" s="66"/>
     </row>
@@ -6004,8 +6016,8 @@
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Tester si l'application est déboggable")</f>
-        <v>Tester si l'application est déboggable</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="66"/>
     </row>
@@ -6024,8 +6036,8 @@
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Tester l'existence des symbols de déboggage")</f>
-        <v>Tester l'existence des symbols de déboggage</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="66"/>
     </row>
@@ -6044,8 +6056,8 @@
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Tester l'existence du code de déboggage ou des messages d'erreur inutilement longs")</f>
-        <v>Tester l'existence du code de déboggage ou des messages d'erreur inutilement longs</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="66"/>
     </row>
@@ -6064,8 +6076,8 @@
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Tester les bibliothéques tiérces utilisées par l'application")</f>
-        <v>Tester les bibliothéques tiérces utilisées par l'application</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="66"/>
     </row>
@@ -6084,8 +6096,8 @@
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Tester la gestion des exceptions")</f>
-        <v>Tester la gestion des exceptions</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H69" s="66"/>
     </row>
@@ -6107,8 +6119,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Tester la gestion d'erreur dans les contrôles de sécurité")</f>
-        <v>Tester la gestion d'erreur dans les contrôles de sécurité</v>
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="66"/>
     </row>
@@ -6127,8 +6139,8 @@
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),"Vérification de la gestion de la mémoire")</f>
-        <v>Vérification de la gestion de la mémoire</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="66"/>
     </row>
@@ -6147,8 +6159,8 @@
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Vérification de l'utilisation des fonctionnalitées de sécurité intégrées")</f>
-        <v>Vérification de l'utilisation des fonctionnalitées de sécurité intégrées</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="66"/>
     </row>
@@ -6312,8 +6324,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" topLeftCell="B8" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6389,8 +6401,8 @@
         <v>63</v>
       </c>
       <c r="F5" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),"Tester la détection des appareils rootés")</f>
-        <v>Tester la détection des appareils rootés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),"Testing Root Detection")</f>
+        <v>Testing Root Detection</v>
       </c>
       <c r="G5" s="73"/>
     </row>
@@ -6407,9 +6419,9 @@
       <c r="E6" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),"Tester la défense contre le déboggage")</f>
-        <v>Tester la défense contre le déboggage</v>
+      <c r="F6" s="193" t="str">
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),"Testing Anti-Debugging")</f>
+        <v>Testing Anti-Debugging</v>
       </c>
       <c r="G6" s="73"/>
     </row>
@@ -6427,8 +6439,8 @@
         <v>63</v>
       </c>
       <c r="F7" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),"Tester le méchanisme de vérification d'intégrité des fichiers")</f>
-        <v>Tester le méchanisme de vérification d'intégrité des fichiers</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),"Testing File Integrity Checks")</f>
+        <v>Testing File Integrity Checks</v>
       </c>
       <c r="G7" s="73"/>
     </row>
@@ -6446,8 +6458,8 @@
         <v>63</v>
       </c>
       <c r="F8" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),"Tester les méchanismes de détection des outils rétro-ingénierie")</f>
-        <v>Tester les méchanismes de détection des outils rétro-ingénierie</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),"Testing The Detection of Reverse Engineering Tools")</f>
+        <v>Testing The Detection of Reverse Engineering Tools</v>
       </c>
       <c r="G8" s="73"/>
     </row>
@@ -6465,8 +6477,8 @@
         <v>63</v>
       </c>
       <c r="F9" s="95" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),"Tester le méchanisme de détection des émulateurs")</f>
-        <v>Tester le méchanisme de détection des émulateurs</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),"Testing Emulator Detection")</f>
+        <v>Testing Emulator Detection</v>
       </c>
       <c r="G9" s="73"/>
     </row>
@@ -6484,8 +6496,8 @@
         <v>63</v>
       </c>
       <c r="F10" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),"Tester le méchanisme de vérification des modifications lors de l'exécution")</f>
-        <v>Tester le méchanisme de vérification des modifications lors de l'exécution</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),"Testing Run Time Integrity Checks")</f>
+        <v>Testing Run Time Integrity Checks</v>
       </c>
       <c r="G10" s="73"/>
     </row>
@@ -6539,8 +6551,8 @@
         <v>63</v>
       </c>
       <c r="F13" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Tester l'obfuscation")</f>
-        <v>Tester l'obfuscation</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
       </c>
       <c r="G13" s="73"/>
     </row>
@@ -6568,8 +6580,8 @@
         <v>63</v>
       </c>
       <c r="F15" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),"Tester le méchanisme de 'liaison avec l'appareil'")</f>
-        <v>Tester le méchanisme de 'liaison avec l'appareil'</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),"Testing Device Binding")</f>
+        <v>Testing Device Binding</v>
       </c>
       <c r="G15" s="73"/>
     </row>
@@ -6597,8 +6609,8 @@
         <v>63</v>
       </c>
       <c r="F17" s="125" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Tester l'Obfuscation")</f>
-        <v>Tester l'Obfuscation</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
       </c>
       <c r="G17" s="73"/>
     </row>
@@ -6741,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B56" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -7032,8 +7044,8 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Tester les données sensibles dans le stockage local du mobile")</f>
-        <v>Tester les données sensibles dans le stockage local du mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H16" s="66"/>
     </row>
@@ -7048,8 +7060,8 @@
       <c r="E17" s="46"/>
       <c r="F17" s="33"/>
       <c r="G17" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Tester les données sensibles dans le stockage local du mobile")</f>
-        <v>Tester les données sensibles dans le stockage local du mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H17" s="66"/>
     </row>
@@ -7068,8 +7080,8 @@
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),"Tester les données sensibles dans les fichiers de logs")</f>
-        <v>Tester les données sensibles dans les fichiers de logs</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),"Checking Logs for Sensitive Data")</f>
+        <v>Checking Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="66"/>
     </row>
@@ -7088,8 +7100,8 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Tester si des données sensibles sont envoyés à une entité tièrce")</f>
-        <v>Tester si des données sensibles sont envoyés à une entité tièrce</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
       </c>
       <c r="H19" s="66"/>
     </row>
@@ -7108,8 +7120,8 @@
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),"Tester si le cache de clavier est désactivé dans les champs d'entrée du text")</f>
-        <v>Tester si le cache de clavier est désactivé dans les champs d'entrée du text</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),"Finding Sensitive Data in the Keyboard Cache")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache</v>
       </c>
       <c r="H20" s="66"/>
     </row>
@@ -7128,8 +7140,8 @@
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),"Vérifier si les données sensibles sont exposées via des méchanismes IPC")</f>
-        <v>Vérifier si les données sensibles sont exposées via des méchanismes IPC</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="66"/>
     </row>
@@ -7148,8 +7160,8 @@
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),"Tester si des données sensibles sont exposées via l'interface utilisateur")</f>
-        <v>Tester si des données sensibles sont exposées via l'interface utilisateur</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),"Checking for Sensitive Data Disclosed Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
       </c>
       <c r="H22" s="66"/>
     </row>
@@ -7168,8 +7180,8 @@
         <v>63</v>
       </c>
       <c r="G23" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Tester l'éxistence de données sensibles dans les backups")</f>
-        <v>Tester l'éxistence de données sensibles dans les backups</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="66"/>
     </row>
@@ -7188,8 +7200,8 @@
         <v>63</v>
       </c>
       <c r="G24" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),"Tester l'existence des données sensibles dans les captures généré automatiquement")</f>
-        <v>Tester l'existence des données sensibles dans les captures généré automatiquement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),"Testing Auto-Generated Screenshots for Sensitive Information")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
       </c>
       <c r="H24" s="66"/>
     </row>
@@ -7208,8 +7220,8 @@
         <v>63</v>
       </c>
       <c r="G25" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),"Tester l'existence des données sensibles dans la mémoire")</f>
-        <v>Tester l'existence des données sensibles dans la mémoire</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),"Testing Memory for Sensitive Data")</f>
+        <v>Testing Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="66"/>
     </row>
@@ -7228,8 +7240,8 @@
         <v>63</v>
       </c>
       <c r="G26" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),"Tester l'existence d'une politique de sécurité d'accès au mobile")</f>
-        <v>Tester l'existence d'une politique de sécurité d'accès au mobile</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),"Local Authentication on iOS")</f>
+        <v>Local Authentication on iOS</v>
       </c>
       <c r="H26" s="66"/>
     </row>
@@ -7248,8 +7260,8 @@
         <v>63</v>
       </c>
       <c r="G27" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Eduction d'utilisateur")</f>
-        <v>Eduction d'utilisateur</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04i-Testing-user-interaction.md#testing-user-education"),"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="66"/>
     </row>
@@ -7281,8 +7293,8 @@
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Vérification de la gestion des clés")</f>
-        <v>Vérification de la gestion des clés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="66"/>
     </row>
@@ -7301,8 +7313,8 @@
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),"Tester l'existence des implémentations personnalisées des primitives cryptographiques")</f>
-        <v>Tester l'existence des implémentations personnalisées des primitives cryptographiques</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),"Custom Implementations of Cryptography")</f>
+        <v>Custom Implementations of Cryptography</v>
       </c>
       <c r="H30" s="66"/>
     </row>
@@ -7321,8 +7333,8 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Vérification de la configuration des algorithms standards de la cryptographie")</f>
-        <v>Vérification de la configuration des algorithms standards de la cryptographie</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
       <c r="H31" s="66"/>
     </row>
@@ -7341,8 +7353,8 @@
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Tester les algorithms de cryptographie non sécurisé et/ou obsolète")</f>
-        <v>Tester les algorithms de cryptographie non sécurisé et/ou obsolète</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="66"/>
     </row>
@@ -7361,8 +7373,8 @@
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Vérification de la gestion des clés")</f>
-        <v>Vérification de la gestion des clés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-key-management"),"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="66"/>
     </row>
@@ -7381,8 +7393,8 @@
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation")," Tester les générateurs  aléatoires des chiffres")</f>
-        <v xml:space="preserve"> Tester les générateurs  aléatoires des chiffres</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06e-Testing-Cryptography.md#testing-random-number-generation")," Testing Random Number Generation")</f>
+        <v xml:space="preserve"> Testing Random Number Generation</v>
       </c>
       <c r="H34" s="66"/>
     </row>
@@ -7414,8 +7426,8 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Vérification que l'utilisateur a été authentifier proprement")</f>
-        <v>Vérification que l'utilisateur a été authentifier proprement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="66"/>
     </row>
@@ -7434,8 +7446,8 @@
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Tester la gestion de sessions")</f>
-        <v>Tester la gestion de sessions</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
       </c>
       <c r="H37" s="66"/>
     </row>
@@ -7454,8 +7466,8 @@
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Tester l'Authentification sans état (stateless/passive)")</f>
-        <v>Tester l'Authentification sans état (stateless/passive)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="66"/>
       <c r="J38" s="52"/>
@@ -7471,8 +7483,8 @@
       <c r="E39" s="46"/>
       <c r="F39" s="33"/>
       <c r="G39" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"Tester la fonctionalité du logout")</f>
-        <v>Tester la fonctionalité du logout</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="66"/>
       <c r="J39" s="52"/>
@@ -7492,8 +7504,8 @@
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md##best-practices-for-passwords"),"Tester la politique des mots de pass")</f>
-        <v>Tester la politique des mots de pass</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md##best-practices-for-passwords"),"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="66"/>
     </row>
@@ -7512,8 +7524,8 @@
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Tester les tentatives de login excessives")</f>
-        <v>Tester les tentatives de login excessives</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="66"/>
     </row>
@@ -7532,8 +7544,8 @@
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Tester le Timeout de la Session")</f>
-        <v>Tester le Timeout de la Session</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="52"/>
     </row>
@@ -7552,8 +7564,8 @@
         <v>63</v>
       </c>
       <c r="G43" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),"Tester  l'authentification Biometric")</f>
-        <v>Tester  l'authentification Biometric</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),"Testing Local Authentication")</f>
+        <v>Testing Local Authentication</v>
       </c>
       <c r="H43" s="66"/>
     </row>
@@ -7572,8 +7584,8 @@
         <v>63</v>
       </c>
       <c r="G44" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Tester l'uthentification double. (Authentification par deux facteurs)")</f>
-        <v>Tester l'uthentification double. (Authentification par deux facteurs)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="66"/>
     </row>
@@ -7592,8 +7604,8 @@
         <v>63</v>
       </c>
       <c r="G45" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"Tester l'authentification au démarrage")</f>
-        <v>Tester l'authentification au démarrage</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="66"/>
     </row>
@@ -7615,8 +7627,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Tester les tentatives d'authentification et le blocage des périphériques")</f>
-        <v>Tester les tentatives d'authentification et le blocage des périphériques</v>
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="66"/>
     </row>
@@ -7648,12 +7660,12 @@
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Vérification du cryptage des données sensibles dans le réseau")</f>
-        <v>Vérification du cryptage des données sensibles dans le réseau</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="126" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"sécurité du transport de l'application (ATS)")</f>
-        <v>sécurité du transport de l'application (ATS)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
+        <v>App Transport Security</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -7671,12 +7683,12 @@
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Vérification des réglages de TLS")</f>
-        <v>Vérification des réglages de TLS</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="126" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"sécurité du transport de l'application (ATS)")</f>
-        <v>sécurité du transport de l'application (ATS)</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#app-transport-security"),"App Transport Security")</f>
+        <v>App Transport Security</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="29" x14ac:dyDescent="0.35">
@@ -7694,8 +7706,8 @@
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Tester les magasins de certificats personnalisées et l'épinglage de certificats")</f>
-        <v>Tester les magasins de certificats personnalisées et l'épinglage de certificats</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H50" s="66"/>
     </row>
@@ -7714,8 +7726,8 @@
         <v>63</v>
       </c>
       <c r="G51" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Tester les magasins de certificats personnalisées et l'épinglage de certificats")</f>
-        <v>Tester les magasins de certificats personnalisées et l'épinglage de certificats</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="66"/>
     </row>
@@ -7734,8 +7746,8 @@
         <v>63</v>
       </c>
       <c r="G52" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Vérification que les opérations critiques utilisent des canals de communications sécurisés")</f>
-        <v>Vérification que les opérations critiques utilisent des canals de communications sécurisés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="66"/>
     </row>
@@ -7757,8 +7769,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Tester les vulnérabilités des bibliothèques tierces")</f>
-        <v>Tester les vulnérabilités des bibliothèques tierces</v>
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H53" s="66"/>
     </row>
@@ -7790,8 +7802,8 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),"Tester les permissions de l'App")</f>
-        <v>Tester les permissions de l'App</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),"Testing App Permissions")</f>
+        <v>Testing App Permissions</v>
       </c>
       <c r="H55" s="66"/>
     </row>
@@ -7810,8 +7822,8 @@
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Tester la validation et l'assainissement des entrées")</f>
-        <v>Tester la validation et l'assainissement des entrées</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04h-Testing-Code-Quality.md#injection-flaws"),"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="66"/>
     </row>
@@ -7830,8 +7842,8 @@
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Tester les schémas d'URL propres à l'application")</f>
-        <v>Tester les schémas d'URL propres à l'application</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),"Testing Custom URL Schemes")</f>
+        <v>Testing Custom URL Schemes</v>
       </c>
       <c r="H57" s="66"/>
     </row>
@@ -7853,8 +7865,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Tester l'exportation des fonctionnalités sensibles à travers les possibilités IPC")</f>
-        <v>Tester l'exportation des fonctionnalités sensibles à travers les possibilités IPC</v>
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="66"/>
     </row>
@@ -7873,8 +7885,8 @@
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),"Tester l'execution du Javascript dans les WebViews")</f>
-        <v>Tester l'execution du Javascript dans les WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),"Testing iOS WebViews")</f>
+        <v>Testing iOS WebViews</v>
       </c>
       <c r="H59" s="66"/>
     </row>
@@ -7893,8 +7905,8 @@
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Tester les gestionnaires de protocoles dans les WebViews")</f>
-        <v>Tester les gestionnaires de protocoles dans les WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),"Testing WebView Protocol Handlers")</f>
+        <v>Testing WebView Protocol Handlers</v>
       </c>
       <c r="H60" s="66"/>
     </row>
@@ -7913,8 +7925,8 @@
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),"Tester si des Objets Java sont exposés par des WebViews")</f>
-        <v>Tester si des Objets Java sont exposés par des WebViews</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),"Determining Whether Native Methods Are Exposed Through WebViews")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="66"/>
     </row>
@@ -7933,8 +7945,8 @@
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),"Tester la (Dé-)Sérialisation des Objets")</f>
-        <v>Tester la (Dé-)Sérialisation des Objets</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="66"/>
     </row>
@@ -7966,8 +7978,8 @@
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Vérifier que l'application est signée proprement")</f>
-        <v>Vérifier que l'application est signée proprement</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),"Making Sure that the App Is Properly Signed")</f>
+        <v>Making Sure that the App Is Properly Signed</v>
       </c>
       <c r="H64" s="66"/>
     </row>
@@ -7986,8 +7998,8 @@
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Tester si l'application est déboggable")</f>
-        <v>Tester si l'application est déboggable</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="66"/>
     </row>
@@ -8006,8 +8018,8 @@
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Tester l'existence des symbols de déboggage")</f>
-        <v>Tester l'existence des symbols de déboggage</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="66"/>
     </row>
@@ -8026,8 +8038,8 @@
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Tester l'existence du code de déboggage ou des messages d'erreur inutilement longs")</f>
-        <v>Tester l'existence du code de déboggage ou des messages d'erreur inutilement longs</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="66"/>
     </row>
@@ -8046,8 +8058,8 @@
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="94" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Tester les bibliothéques tiérces utilisées par l'application")</f>
-        <v>Tester les bibliothéques tiérces utilisées par l'application</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="66"/>
     </row>
@@ -8066,8 +8078,8 @@
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Tester la gestion des exceptions")</f>
-        <v>Tester la gestion des exceptions</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H69" s="66"/>
     </row>
@@ -8086,8 +8098,8 @@
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Tester la gestion d'erreur dans les contrôles de sécurité")</f>
-        <v>Tester la gestion d'erreur dans les contrôles de sécurité</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="66"/>
     </row>
@@ -8106,8 +8118,8 @@
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),"Vérification de la gestion de la mémoire")</f>
-        <v>Vérification de la gestion de la mémoire</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="66"/>
     </row>
@@ -8126,8 +8138,8 @@
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Vérification de l'utilisation des fonctionnalitées de sécurité intégrées")</f>
-        <v>Vérification de l'utilisation des fonctionnalitées de sécurité intégrées</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="66"/>
     </row>
@@ -8364,8 +8376,8 @@
         <v>63</v>
       </c>
       <c r="F5" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),"Tester la détection des appareils jailbreakés")</f>
-        <v>Tester la détection des appareils jailbreakés</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),"Jailbreak Detection")</f>
+        <v>Jailbreak Detection</v>
       </c>
       <c r="G5" s="73"/>
     </row>
@@ -8383,8 +8395,8 @@
         <v>63</v>
       </c>
       <c r="F6" s="96" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),"Tester la défense contre le déboggage")</f>
-        <v>Tester la défense contre le déboggage</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),"Anti-Debugging Checks")</f>
+        <v>Anti-Debugging Checks</v>
       </c>
       <c r="G6" s="73"/>
     </row>
@@ -8402,8 +8414,8 @@
         <v>63</v>
       </c>
       <c r="F7" s="96" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),"Tester le méchanisme de vérification d'intégrité des fichiers")</f>
-        <v>Tester le méchanisme de vérification d'intégrité des fichiers</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),"File Integrity Checks")</f>
+        <v>File Integrity Checks</v>
       </c>
       <c r="G7" s="73"/>
     </row>
@@ -8539,8 +8551,8 @@
         <v>63</v>
       </c>
       <c r="F15" s="93" t="str">
-        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),"Tester le méchanisme de 'liaison avec l'appareil'")</f>
-        <v>Tester le méchanisme de 'liaison avec l'appareil'</v>
+        <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),"Device Binding")</f>
+        <v>Device Binding</v>
       </c>
       <c r="G15" s="73"/>
     </row>
@@ -8710,10 +8722,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9031,7 +9043,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="112" t="s">
         <v>104</v>
       </c>
@@ -9048,7 +9060,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="112" t="s">
         <v>104</v>
       </c>
@@ -9063,6 +9075,23 @@
       </c>
       <c r="E22" s="138" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="117">
+        <v>43677</v>
+      </c>
+      <c r="E23" s="138" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
